--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2423676.723561935</v>
+        <v>2421943.242448293</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228709</v>
+        <v>6049179.212228712</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673419</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9149584.118434092</v>
+        <v>9149584.11843409</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451549</v>
+        <v>4.891389655629268</v>
       </c>
       <c r="F11" t="n">
         <v>327.4448345146045</v>
@@ -1388,7 +1388,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173339</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.321047243028</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.617380586409979</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>139.5597426859892</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.63800116627695</v>
+        <v>65.63800116627692</v>
       </c>
       <c r="G12" t="n">
-        <v>56.42418423419253</v>
+        <v>56.4241842341925</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672108</v>
+        <v>18.43211025672105</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>12.31177431642715</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S12" t="n">
         <v>144.0419631757947</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110543</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278248</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234363</v>
+        <v>38.5007924223436</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1585,16 +1585,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W13" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210.0358209086559</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170842</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T14" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8097574903061</v>
+        <v>97.47817520836598</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>105.5890620776359</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>68.0138543375318</v>
       </c>
       <c r="E15" t="n">
-        <v>90.52564354472371</v>
+        <v>78.21386922829399</v>
       </c>
       <c r="F15" t="n">
-        <v>65.63800116627695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419253</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
         <v>97.863321483828</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S15" t="n">
         <v>144.0419631757947</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110543</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278248</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234363</v>
+        <v>38.5007924223436</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.97309655957864</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
         <v>206.4104693167937</v>
@@ -1859,7 +1859,7 @@
         <v>253.6590243899773</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777488</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U17" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>190.3785462631991</v>
+        <v>162.6087101912568</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y17" t="n">
         <v>227.3755162018397</v>
@@ -1929,10 +1929,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>76.73243348389107</v>
       </c>
       <c r="F18" t="n">
-        <v>32.73220411844596</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.8553954612995</v>
@@ -1941,7 +1941,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413949</v>
+        <v>100.1695020691806</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610398</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T19" t="n">
-        <v>117.872383082187</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2509789249108</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482327</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874976</v>
+        <v>68.11530063780599</v>
       </c>
       <c r="G20" t="n">
-        <v>73.76070174028996</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U20" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V20" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y20" t="n">
         <v>227.3755162018397</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>16.78188476119615</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S21" t="n">
         <v>144.0419631757947</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>186.8483597322805</v>
       </c>
     </row>
     <row r="22">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610398</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362939</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U22" t="n">
-        <v>204.1837989629009</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961412</v>
+        <v>185.0603242943808</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482327</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U23" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y23" t="n">
         <v>227.3755162018397</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>120.4496469346647</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2412,7 +2412,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>51.77978476862518</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S24" t="n">
         <v>144.0419631757947</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>76.79524249220378</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610398</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362939</v>
+        <v>117.872383082187</v>
       </c>
       <c r="U25" t="n">
-        <v>127.3885564706969</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961412</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482327</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
         <v>248.321047243028</v>
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2713,25 +2713,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F28" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H28" t="n">
         <v>71.70374093278247</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500374</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2953,7 +2953,7 @@
         <v>87.81560987152089</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110581</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E31" t="n">
         <v>67.00275141946223</v>
@@ -2968,7 +2968,7 @@
         <v>71.70374093278245</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3044,10 +3044,10 @@
         <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500373</v>
+        <v>66.2101971950037</v>
       </c>
       <c r="T32" t="n">
         <v>131.4895384249674</v>
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3202,10 +3202,10 @@
         <v>87.31217688571732</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I34" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651715</v>
+        <v>119.5593935641247</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778685</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503161</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573256</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8533284841977</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
         <v>106.4962349017173</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8815899144803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1218419271846</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778685</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503161</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573256</v>
       </c>
       <c r="U40" t="n">
-        <v>140.6095705028001</v>
+        <v>238.5635513904077</v>
       </c>
       <c r="V40" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>140.8815899144803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998408</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E41" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H41" t="n">
         <v>165.349500609852</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320492</v>
+        <v>105.4817412320503</v>
       </c>
       <c r="V41" t="n">
         <v>182.1108500480242</v>
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778685</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503161</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573259</v>
+        <v>174.92754475334</v>
       </c>
       <c r="U43" t="n">
-        <v>238.5635513904071</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998408</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D46" t="n">
         <v>2.97406459610167</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0559605783205</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T46" t="n">
         <v>76.97356386573259</v>
@@ -4192,13 +4192,13 @@
         <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
-        <v>106.4962349017173</v>
+        <v>204.4502157893245</v>
       </c>
       <c r="W46" t="n">
         <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>72.9432449299841</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.138511127777</v>
+        <v>952.7360672033731</v>
       </c>
       <c r="C11" t="n">
-        <v>1277.409540881413</v>
+        <v>952.7360672033731</v>
       </c>
       <c r="D11" t="n">
-        <v>1277.409540881413</v>
+        <v>952.7360672033731</v>
       </c>
       <c r="E11" t="n">
-        <v>971.8548349772161</v>
+        <v>947.7952695714243</v>
       </c>
       <c r="F11" t="n">
-        <v>641.102476881656</v>
+        <v>617.0429114758642</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300558</v>
+        <v>280.5881280242644</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868629</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J11" t="n">
-        <v>268.5576303040251</v>
+        <v>101.1519812836721</v>
       </c>
       <c r="K11" t="n">
-        <v>604.5264307378758</v>
+        <v>554.4196843468366</v>
       </c>
       <c r="L11" t="n">
-        <v>805.6371221970217</v>
+        <v>755.5303758059825</v>
       </c>
       <c r="M11" t="n">
-        <v>1061.08095377116</v>
+        <v>1010.974207380121</v>
       </c>
       <c r="N11" t="n">
-        <v>1325.271941977304</v>
+        <v>1588.756069119695</v>
       </c>
       <c r="O11" t="n">
-        <v>1561.404739318497</v>
+        <v>1824.888866460888</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.018338954672</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579089</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2267.593181579089</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U11" t="n">
-        <v>2094.166981147721</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V11" t="n">
-        <v>1843.337640498198</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.802531922131</v>
+        <v>1862.240357422244</v>
       </c>
       <c r="X11" t="n">
-        <v>1570.802531922131</v>
+        <v>1569.008145855212</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.138511127777</v>
+        <v>1259.102360573447</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>691.5060763271681</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C12" t="n">
-        <v>517.0530470460411</v>
+        <v>509.2108736695185</v>
       </c>
       <c r="D12" t="n">
-        <v>368.1186373847898</v>
+        <v>360.2764640082672</v>
       </c>
       <c r="E12" t="n">
-        <v>227.1492003282351</v>
+        <v>201.0390090028117</v>
       </c>
       <c r="F12" t="n">
-        <v>160.8481890491674</v>
+        <v>134.7379977237441</v>
       </c>
       <c r="G12" t="n">
-        <v>103.8540635600841</v>
+        <v>77.74387223466078</v>
       </c>
       <c r="H12" t="n">
-        <v>85.23577037147692</v>
+        <v>59.12557904605367</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J12" t="n">
-        <v>185.1392358768293</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393644</v>
+        <v>286.5722416969116</v>
       </c>
       <c r="L12" t="n">
-        <v>1098.23650328044</v>
+        <v>801.3226616597649</v>
       </c>
       <c r="M12" t="n">
-        <v>1330.809348347705</v>
+        <v>1033.89550672703</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.946349497549</v>
+        <v>1611.677368466605</v>
       </c>
       <c r="O12" t="n">
-        <v>1793.297456023601</v>
+        <v>1821.028474992657</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551163</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
-        <v>2334.472168644749</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S12" t="n">
-        <v>2188.975236143946</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T12" t="n">
-        <v>1992.84740388113</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U12" t="n">
-        <v>1764.722677277667</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V12" t="n">
-        <v>1529.570569045924</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W12" t="n">
-        <v>1275.333212317723</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X12" t="n">
-        <v>1067.48171211219</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y12" t="n">
-        <v>859.7214133472362</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.122948543356</v>
+        <v>539.1229485433557</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094964</v>
+        <v>450.4203123094962</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912081</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028624</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989994</v>
+        <v>246.2012718989993</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839356</v>
+        <v>85.57913268839351</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
@@ -5206,7 +5206,7 @@
         <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5230,19 +5230,19 @@
         <v>1521.396324448161</v>
       </c>
       <c r="U13" t="n">
-        <v>1312.487468187754</v>
+        <v>1312.487468187753</v>
       </c>
       <c r="V13" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330008</v>
+        <v>928.8529033330005</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290308</v>
+        <v>781.0968991290306</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795482</v>
+        <v>640.537866679548</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1225.827421484128</v>
+        <v>995.7850430248074</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.827421484128</v>
+        <v>707.0560727784432</v>
       </c>
       <c r="D14" t="n">
-        <v>947.7952695714248</v>
+        <v>707.0560727784432</v>
       </c>
       <c r="E14" t="n">
-        <v>947.7952695714248</v>
+        <v>401.5013668742463</v>
       </c>
       <c r="F14" t="n">
-        <v>617.0429114758647</v>
+        <v>70.74900877868619</v>
       </c>
       <c r="G14" t="n">
-        <v>280.5881280242644</v>
+        <v>70.74900877868619</v>
       </c>
       <c r="H14" t="n">
-        <v>46.68944337289498</v>
+        <v>70.74900877868619</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5576303040251</v>
+        <v>258.0222924385681</v>
       </c>
       <c r="K14" t="n">
-        <v>604.5264307378758</v>
+        <v>390.3860370562795</v>
       </c>
       <c r="L14" t="n">
-        <v>805.6371221970217</v>
+        <v>968.1678987958543</v>
       </c>
       <c r="M14" t="n">
-        <v>1061.08095377116</v>
+        <v>1223.611730369993</v>
       </c>
       <c r="N14" t="n">
-        <v>1325.271941977304</v>
+        <v>1487.802718576137</v>
       </c>
       <c r="O14" t="n">
-        <v>1561.404739318497</v>
+        <v>2065.584580315712</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.018338954672</v>
+        <v>2232.617458862119</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644749</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579089</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T14" t="n">
-        <v>2134.775465998313</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U14" t="n">
-        <v>1961.349265566946</v>
+        <v>1961.349265566943</v>
       </c>
       <c r="V14" t="n">
-        <v>1710.519924917423</v>
+        <v>1710.51992491742</v>
       </c>
       <c r="W14" t="n">
-        <v>1437.984816341356</v>
+        <v>1612.057121676646</v>
       </c>
       <c r="X14" t="n">
-        <v>1437.984816341356</v>
+        <v>1612.057121676646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.984816341356</v>
+        <v>1302.151336394882</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>683.6639029506482</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C15" t="n">
-        <v>509.2108736695212</v>
+        <v>577.0082846904072</v>
       </c>
       <c r="D15" t="n">
-        <v>360.27646400827</v>
+        <v>508.3074217232033</v>
       </c>
       <c r="E15" t="n">
-        <v>268.8364200237006</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="F15" t="n">
-        <v>202.5354087446329</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555496</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J15" t="n">
-        <v>185.1392358768293</v>
+        <v>60.3091108898245</v>
       </c>
       <c r="K15" t="n">
-        <v>548.3928263393644</v>
+        <v>366.8485170868304</v>
       </c>
       <c r="L15" t="n">
-        <v>1098.23650328044</v>
+        <v>549.5602521774813</v>
       </c>
       <c r="M15" t="n">
-        <v>1330.809348347705</v>
+        <v>782.1330972447468</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.946349497549</v>
+        <v>1035.270098394591</v>
       </c>
       <c r="O15" t="n">
-        <v>1793.297456023601</v>
+        <v>1613.051960134166</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.019754551163</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268229</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767427</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T15" t="n">
-        <v>1985.00523050461</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U15" t="n">
-        <v>1756.880503901147</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V15" t="n">
-        <v>1521.728395669405</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W15" t="n">
-        <v>1267.491038941203</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.63953873567</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y15" t="n">
-        <v>851.8792399707163</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="16">
@@ -5413,40 +5413,40 @@
         <v>539.122948543356</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094964</v>
+        <v>450.4203123094965</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912081</v>
+        <v>380.5372195912082</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028624</v>
+        <v>312.8576727028625</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989995</v>
+        <v>246.2012718989996</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326184</v>
       </c>
       <c r="H16" t="n">
-        <v>85.5791326883936</v>
+        <v>85.57913268839351</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279193</v>
+        <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080086</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105135</v>
+        <v>609.890444710513</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538491</v>
+        <v>921.3253246538485</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.659405364008</v>
+        <v>1232.659405364007</v>
       </c>
       <c r="O16" t="n">
         <v>1510.213519297866</v>
@@ -5473,13 +5473,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.852903333001</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X16" t="n">
-        <v>781.096899129031</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795483</v>
+        <v>640.5378666795482</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470405</v>
+        <v>1185.044679513082</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918088</v>
+        <v>976.5492559607655</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994321</v>
+        <v>778.7506507421099</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892827</v>
+        <v>553.4294915319605</v>
       </c>
       <c r="F17" t="n">
-        <v>456.57581808777</v>
+        <v>302.9106801304478</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302171</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5576303040251</v>
+        <v>101.1519812836721</v>
       </c>
       <c r="K17" t="n">
-        <v>721.8253333671896</v>
+        <v>497.3700888820794</v>
       </c>
       <c r="L17" t="n">
-        <v>922.9360248263355</v>
+        <v>698.4807803412253</v>
       </c>
       <c r="M17" t="n">
-        <v>1178.379856400474</v>
+        <v>1276.2626420808</v>
       </c>
       <c r="N17" t="n">
-        <v>1442.570844606618</v>
+        <v>1854.044503820375</v>
       </c>
       <c r="O17" t="n">
-        <v>1678.703641947811</v>
+        <v>2090.177301161568</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.018338954672</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758022</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020701</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065226</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183206</v>
+        <v>1853.848329649811</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310221</v>
+        <v>1640.849664776826</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722504</v>
+        <v>1411.177426189109</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>837.0030088279707</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C18" t="n">
-        <v>662.5499795468437</v>
+        <v>509.2108736695185</v>
       </c>
       <c r="D18" t="n">
-        <v>513.6155698855924</v>
+        <v>360.2764640082672</v>
       </c>
       <c r="E18" t="n">
-        <v>354.3781148801369</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="F18" t="n">
-        <v>321.3152824372622</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G18" t="n">
-        <v>184.0876102541315</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147692</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J18" t="n">
-        <v>185.1392358768293</v>
+        <v>60.30911088982452</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393644</v>
+        <v>161.742116709907</v>
       </c>
       <c r="L18" t="n">
-        <v>917.9910073910075</v>
+        <v>344.453851800558</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.563852458273</v>
+        <v>577.0266968678236</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.700853608117</v>
+        <v>1154.808558607398</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.051960134169</v>
+        <v>1732.590420346973</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.019754551163</v>
+        <v>2196.558214763967</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2334.472168644749</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S18" t="n">
-        <v>2334.472168644749</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T18" t="n">
-        <v>2138.344336381932</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U18" t="n">
-        <v>1910.21960977847</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V18" t="n">
-        <v>1675.067501546727</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W18" t="n">
-        <v>1420.830144818525</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X18" t="n">
-        <v>1212.978644612993</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y18" t="n">
-        <v>1005.218345848039</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.11910428504079</v>
+        <v>155.8313299666232</v>
       </c>
       <c r="C19" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="D19" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="E19" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="F19" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843494</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>881.5670340787033</v>
       </c>
       <c r="T19" t="n">
-        <v>1045.392480189846</v>
+        <v>817.1705190952392</v>
       </c>
       <c r="U19" t="n">
-        <v>756.2500772353909</v>
+        <v>688.4952095288786</v>
       </c>
       <c r="V19" t="n">
-        <v>501.5655890295041</v>
+        <v>594.2778147110865</v>
       </c>
       <c r="W19" t="n">
-        <v>212.1484189925434</v>
+        <v>304.8606446741259</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6259614826209</v>
+        <v>237.3381871642034</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.30047572718566</v>
+        <v>177.0127014087681</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046478</v>
+        <v>1156.994340046473</v>
       </c>
       <c r="C20" t="n">
-        <v>948.4989164941607</v>
+        <v>948.4989164941564</v>
       </c>
       <c r="D20" t="n">
-        <v>750.700311275505</v>
+        <v>750.7003112755008</v>
       </c>
       <c r="E20" t="n">
-        <v>525.3791520653556</v>
+        <v>525.3791520653515</v>
       </c>
       <c r="F20" t="n">
-        <v>274.8603406638429</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302171</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J20" t="n">
-        <v>268.5576303040251</v>
+        <v>156.2485752310445</v>
       </c>
       <c r="K20" t="n">
-        <v>721.8253333671896</v>
+        <v>609.5162782942091</v>
       </c>
       <c r="L20" t="n">
-        <v>922.9360248263355</v>
+        <v>810.6269697533551</v>
       </c>
       <c r="M20" t="n">
-        <v>1178.379856400474</v>
+        <v>1066.070801327493</v>
       </c>
       <c r="N20" t="n">
-        <v>1442.570844606618</v>
+        <v>1643.852663067068</v>
       </c>
       <c r="O20" t="n">
-        <v>1678.703641947811</v>
+        <v>1879.985460408261</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.018338954672</v>
+        <v>2047.018338954668</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.887999758022</v>
+        <v>2281.887999758018</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.695346020701</v>
+        <v>2188.695346020697</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065226</v>
+        <v>2018.099552065222</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183206</v>
+        <v>1825.797990183202</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310222</v>
+        <v>1612.799325310217</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722505</v>
+        <v>1383.1270867225</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>683.6639029506482</v>
+        <v>702.6884848143051</v>
       </c>
       <c r="C21" t="n">
-        <v>509.2108736695212</v>
+        <v>528.2354555331781</v>
       </c>
       <c r="D21" t="n">
-        <v>360.27646400827</v>
+        <v>528.2354555331781</v>
       </c>
       <c r="E21" t="n">
-        <v>201.0390090028145</v>
+        <v>368.9980005277226</v>
       </c>
       <c r="F21" t="n">
-        <v>184.0876102541315</v>
+        <v>222.4634425546076</v>
       </c>
       <c r="G21" t="n">
-        <v>184.0876102541315</v>
+        <v>85.23577037147682</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147692</v>
+        <v>85.23577037147682</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J21" t="n">
-        <v>185.1392358768293</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>548.3928263393644</v>
+        <v>286.5722416969117</v>
       </c>
       <c r="L21" t="n">
-        <v>917.9910073910075</v>
+        <v>469.2839767875627</v>
       </c>
       <c r="M21" t="n">
-        <v>1150.563852458273</v>
+        <v>701.8568218548282</v>
       </c>
       <c r="N21" t="n">
-        <v>1403.700853608117</v>
+        <v>1035.270098394591</v>
       </c>
       <c r="O21" t="n">
-        <v>1613.051960134169</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.019754551163</v>
+        <v>2077.019754551159</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644749</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268229</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767427</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.00523050461</v>
+        <v>1985.005230504606</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901147</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669405</v>
+        <v>1521.728395669401</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.491038941203</v>
+        <v>1267.491038941199</v>
       </c>
       <c r="X21" t="n">
-        <v>1059.63953873567</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y21" t="n">
-        <v>851.8792399707163</v>
+        <v>870.903821834373</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>521.6159306678645</v>
+        <v>63.11910428504078</v>
       </c>
       <c r="C22" t="n">
-        <v>352.6797477399576</v>
+        <v>54.65001474522867</v>
       </c>
       <c r="D22" t="n">
-        <v>202.5631083276218</v>
+        <v>54.65001474522867</v>
       </c>
       <c r="E22" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522867</v>
       </c>
       <c r="F22" t="n">
-        <v>54.65001474522872</v>
+        <v>54.65001474522867</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289498</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843494</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>881.5670340787033</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>817.1705190952392</v>
       </c>
       <c r="U22" t="n">
-        <v>893.8127168420249</v>
+        <v>688.4952095288786</v>
       </c>
       <c r="V22" t="n">
-        <v>799.5953220242328</v>
+        <v>501.5655890295041</v>
       </c>
       <c r="W22" t="n">
-        <v>670.645245375367</v>
+        <v>372.6155123806383</v>
       </c>
       <c r="X22" t="n">
-        <v>603.1227878654446</v>
+        <v>305.0930548707158</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.7973021100094</v>
+        <v>84.30047572718567</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.418296601505</v>
+        <v>1342.418296601506</v>
       </c>
       <c r="C23" t="n">
-        <v>1133.922873049188</v>
+        <v>1133.922873049189</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305325</v>
+        <v>936.1242678305331</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203832</v>
+        <v>710.8031086203837</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188705</v>
+        <v>460.284297218871</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613176</v>
@@ -5987,52 +5987,52 @@
         <v>50.39792250399555</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351257</v>
+        <v>169.8595811013507</v>
       </c>
       <c r="K23" t="n">
-        <v>725.5338124982901</v>
+        <v>302.2233257190622</v>
       </c>
       <c r="L23" t="n">
-        <v>991.0610787520498</v>
+        <v>916.8186195831541</v>
       </c>
       <c r="M23" t="n">
-        <v>1246.504910326188</v>
+        <v>1540.492910570099</v>
       </c>
       <c r="N23" t="n">
-        <v>1510.695898532332</v>
+        <v>1804.683898776243</v>
       </c>
       <c r="O23" t="n">
-        <v>1746.828695873525</v>
+        <v>2040.816696117437</v>
       </c>
       <c r="P23" t="n">
-        <v>2232.4422955097</v>
+        <v>2207.849574663844</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199778</v>
+        <v>2495.303404353921</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199778</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199778</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575729</v>
+        <v>2374.11930257573</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620253</v>
+        <v>2203.523508620254</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738234</v>
+        <v>2011.221946738235</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865249</v>
+        <v>1798.22328186525</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.551043277532</v>
+        <v>1568.551043277533</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869.0878595056763</v>
+        <v>915.6368864907296</v>
       </c>
       <c r="C24" t="n">
-        <v>694.6348302245493</v>
+        <v>741.1838572096026</v>
       </c>
       <c r="D24" t="n">
-        <v>545.7004205632981</v>
+        <v>592.2494475483513</v>
       </c>
       <c r="E24" t="n">
-        <v>386.4629655578426</v>
+        <v>433.0119925428959</v>
       </c>
       <c r="F24" t="n">
-        <v>239.9284075847275</v>
+        <v>286.4774345697809</v>
       </c>
       <c r="G24" t="n">
-        <v>102.7007354015967</v>
+        <v>149.2497623866501</v>
       </c>
       <c r="H24" t="n">
         <v>50.39792250399555</v>
@@ -6066,34 +6066,34 @@
         <v>50.39792250399555</v>
       </c>
       <c r="J24" t="n">
-        <v>188.8477150079298</v>
+        <v>64.01759002092514</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704649</v>
+        <v>370.4463559437709</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.94498241154</v>
+        <v>920.2900328848465</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.517827478806</v>
+        <v>1543.964323871791</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.65482862865</v>
+        <v>1797.101325021636</v>
       </c>
       <c r="O24" t="n">
-        <v>2186.929631238664</v>
+        <v>2006.452431547687</v>
       </c>
       <c r="P24" t="n">
-        <v>2335.61928470212</v>
+        <v>2470.420225964681</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199778</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2512.053951823258</v>
+        <v>2512.053951823257</v>
       </c>
       <c r="S24" t="n">
-        <v>2366.557019322455</v>
+        <v>2366.557019322454</v>
       </c>
       <c r="T24" t="n">
         <v>2170.429187059638</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>442.4282684231972</v>
+        <v>227.2946768042362</v>
       </c>
       <c r="C25" t="n">
-        <v>433.9591788833852</v>
+        <v>58.35849387632931</v>
       </c>
       <c r="D25" t="n">
-        <v>283.8425394710495</v>
+        <v>58.35849387632931</v>
       </c>
       <c r="E25" t="n">
-        <v>135.9294458886563</v>
+        <v>58.35849387632931</v>
       </c>
       <c r="F25" t="n">
-        <v>58.35849387632929</v>
+        <v>58.35849387632931</v>
       </c>
       <c r="G25" t="n">
         <v>50.39792250399555</v>
@@ -6151,19 +6151,19 @@
         <v>171.849070669249</v>
       </c>
       <c r="L25" t="n">
-        <v>382.791160756918</v>
+        <v>382.7911607569181</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854177</v>
+        <v>615.5891415854178</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807404</v>
+        <v>848.2863231807405</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999763</v>
+        <v>1047.203537999764</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059297</v>
+        <v>1193.890897059298</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
@@ -6172,25 +6172,25 @@
         <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535277</v>
+        <v>1007.696879147182</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551813</v>
+        <v>888.6338659328521</v>
       </c>
       <c r="U25" t="n">
-        <v>975.0921479854526</v>
+        <v>759.9585563664915</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676605</v>
+        <v>665.7411615486994</v>
       </c>
       <c r="W25" t="n">
-        <v>751.9246765187947</v>
+        <v>376.3239915117389</v>
       </c>
       <c r="X25" t="n">
-        <v>684.4022190088722</v>
+        <v>308.8015340018164</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.0767332534369</v>
+        <v>248.4760482463811</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
         <v>1582.292511914891</v>
@@ -6209,64 +6209,64 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.705654097991</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024309</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508306</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946167</v>
       </c>
       <c r="I26" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044475</v>
+        <v>128.0028004044476</v>
       </c>
       <c r="K26" t="n">
-        <v>581.2705034676119</v>
+        <v>581.2705034676121</v>
       </c>
       <c r="L26" t="n">
         <v>1195.865797331704</v>
       </c>
       <c r="M26" t="n">
-        <v>1896.328027063746</v>
+        <v>1896.328027063747</v>
       </c>
       <c r="N26" t="n">
-        <v>2593.492470437755</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O26" t="n">
-        <v>3206.617447229066</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746748</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R26" t="n">
         <v>3677.01312468352</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T26" t="n">
         <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605718</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y26" t="n">
         <v>2177.38777553133</v>
@@ -6303,25 +6303,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
-        <v>211.9900549976047</v>
+        <v>87.15993001059999</v>
       </c>
       <c r="K27" t="n">
-        <v>575.2436454601398</v>
+        <v>188.5929358306824</v>
       </c>
       <c r="L27" t="n">
-        <v>757.9553805507907</v>
+        <v>371.3046709213335</v>
       </c>
       <c r="M27" t="n">
-        <v>990.528225618056</v>
+        <v>1064.925529101099</v>
       </c>
       <c r="N27" t="n">
-        <v>1718.214177368018</v>
+        <v>1792.611480851061</v>
       </c>
       <c r="O27" t="n">
-        <v>1927.56528389407</v>
+        <v>2001.962587377113</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.681405079501</v>
+        <v>2465.930381794107</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641316</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302721</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119838</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236381</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197752</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533937</v>
+        <v>184.857972953394</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
@@ -6385,49 +6385,49 @@
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287836</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312883</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746241</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484783</v>
       </c>
       <c r="O28" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P28" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.961320317192</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568938</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.33828730853</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W28" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537769</v>
       </c>
       <c r="X28" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498069</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003234</v>
+        <v>667.388685800324</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.705654097992</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024319</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I29" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K29" t="n">
-        <v>581.2705034676119</v>
+        <v>464.1978715032631</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.865797331704</v>
+        <v>1078.793165367355</v>
       </c>
       <c r="M29" t="n">
-        <v>1896.328027063746</v>
+        <v>1779.255395099397</v>
       </c>
       <c r="N29" t="n">
-        <v>2593.492470437755</v>
+        <v>2476.419838473406</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.617447229066</v>
+        <v>3089.544815264717</v>
       </c>
       <c r="P29" t="n">
         <v>3575.158414900892</v>
@@ -6540,19 +6540,19 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
-        <v>211.9900549976047</v>
+        <v>87.15993001059999</v>
       </c>
       <c r="K30" t="n">
-        <v>575.2436454601398</v>
+        <v>188.5929358306824</v>
       </c>
       <c r="L30" t="n">
-        <v>1125.087322401215</v>
+        <v>738.4366127717581</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.660167468481</v>
+        <v>971.0094578390235</v>
       </c>
       <c r="N30" t="n">
-        <v>1610.797168618325</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
         <v>1906.713610662506</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641316</v>
+        <v>565.9737676641305</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302721</v>
+        <v>477.2711314302709</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119826</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236378</v>
+        <v>339.708491823637</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197748</v>
+        <v>273.052091019774</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533928</v>
       </c>
       <c r="H31" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091685</v>
       </c>
       <c r="I31" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
         <v>636.7412638312883</v>
@@ -6631,7 +6631,7 @@
         <v>948.1761437746238</v>
       </c>
       <c r="N31" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O31" t="n">
         <v>1537.064338418641</v>
@@ -6643,28 +6643,28 @@
         <v>1859.149139560522</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S31" t="n">
         <v>1692.877205246448</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V31" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537761</v>
+        <v>955.7037224537753</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498061</v>
+        <v>807.9477182498055</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003239</v>
+        <v>667.3886858003227</v>
       </c>
     </row>
     <row r="32">
@@ -6683,37 +6683,37 @@
         <v>1304.260360002189</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979922</v>
+        <v>998.7056540979919</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024319</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508311</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946167</v>
+        <v>97.59982789946164</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>427.7721940425118</v>
+        <v>667.4906331549032</v>
       </c>
       <c r="L32" t="n">
-        <v>1042.367487906604</v>
+        <v>868.6013246140492</v>
       </c>
       <c r="M32" t="n">
-        <v>1742.829717638646</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N32" t="n">
-        <v>2439.994161012655</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>3053.119137803966</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
         <v>3364.966574147586</v>
@@ -6740,10 +6740,10 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>575.2436454601398</v>
+        <v>313.4230608176872</v>
       </c>
       <c r="L33" t="n">
-        <v>1125.087322401215</v>
+        <v>863.2667377587628</v>
       </c>
       <c r="M33" t="n">
-        <v>1357.660167468481</v>
+        <v>1095.839582826028</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.797168618325</v>
+        <v>1823.525534575991</v>
       </c>
       <c r="O33" t="n">
-        <v>1906.713610662506</v>
+        <v>2422.800337186005</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.681405079501</v>
+        <v>2571.489990649461</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119836</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236379</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F34" t="n">
-        <v>273.052091019775</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533939</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
@@ -6856,16 +6856,16 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746239</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
@@ -6892,16 +6892,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537764</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498063</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761017</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375653</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076653</v>
+        <v>490.5364629076655</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="J35" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K35" t="n">
-        <v>729.0768589303111</v>
+        <v>408.1729004848582</v>
       </c>
       <c r="L35" t="n">
-        <v>930.187550389457</v>
+        <v>1022.76819434895</v>
       </c>
       <c r="M35" t="n">
-        <v>1185.631381963595</v>
+        <v>1575.437614320194</v>
       </c>
       <c r="N35" t="n">
-        <v>1449.82237016974</v>
+        <v>1839.628602526339</v>
       </c>
       <c r="O35" t="n">
-        <v>1899.388296628721</v>
+        <v>2452.75357931765</v>
       </c>
       <c r="P35" t="n">
-        <v>2385.001896264896</v>
+        <v>2619.786457864057</v>
       </c>
       <c r="Q35" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R35" t="n">
         <v>2697.048446800829</v>
@@ -6965,7 +6965,7 @@
         <v>2697.048446800829</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U35" t="n">
         <v>2524.562504920007</v>
@@ -7005,31 +7005,31 @@
         <v>328.5668080003838</v>
       </c>
       <c r="G36" t="n">
-        <v>191.3391358172531</v>
+        <v>191.339135817253</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459848</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="J36" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L36" t="n">
-        <v>351.7053773636794</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1019.224867946885</v>
+        <v>1533.498375807625</v>
       </c>
       <c r="N36" t="n">
-        <v>1686.74435853009</v>
+        <v>2201.01786639083</v>
       </c>
       <c r="O36" t="n">
-        <v>2286.019161140104</v>
+        <v>2410.368972916881</v>
       </c>
       <c r="P36" t="n">
         <v>2559.058626380338</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.6399931540822</v>
+        <v>205.3768636968015</v>
       </c>
       <c r="C37" t="n">
-        <v>89.81634398588304</v>
+        <v>84.60979949061493</v>
       </c>
       <c r="D37" t="n">
-        <v>86.81223833325508</v>
+        <v>81.605693837987</v>
       </c>
       <c r="E37" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="F37" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="G37" t="n">
-        <v>64.69654750984893</v>
+        <v>59.49000301458091</v>
       </c>
       <c r="H37" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="I37" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601657</v>
       </c>
       <c r="K37" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O37" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P37" t="n">
         <v>1197.433943491319</v>
@@ -7117,28 +7117,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1093.136221406615</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>888.8185596418248</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>811.0674850299737</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>550.609577470178</v>
+        <v>938.5715155323128</v>
       </c>
       <c r="V37" t="n">
-        <v>443.0376230239989</v>
+        <v>830.9995610861337</v>
       </c>
       <c r="W37" t="n">
-        <v>300.732986746746</v>
+        <v>541.5823910491731</v>
       </c>
       <c r="X37" t="n">
-        <v>219.8559696084365</v>
+        <v>460.7053739108636</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.1759242246141</v>
+        <v>239.9127947673335</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761025</v>
+        <v>993.0855527761021</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375661</v>
+        <v>754.4098339375656</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076663</v>
+        <v>490.5364629076659</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467937</v>
       </c>
       <c r="K38" t="n">
-        <v>680.4711093509018</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L38" t="n">
-        <v>881.5818008100476</v>
+        <v>441.8779429236513</v>
       </c>
       <c r="M38" t="n">
-        <v>1549.101291393253</v>
+        <v>1109.397433506857</v>
       </c>
       <c r="N38" t="n">
-        <v>2216.620781976459</v>
+        <v>1776.916924090062</v>
       </c>
       <c r="O38" t="n">
-        <v>2452.753579317652</v>
+        <v>2390.041900881373</v>
       </c>
       <c r="P38" t="n">
-        <v>2619.786457864059</v>
+        <v>2557.07477942778</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R38" t="n">
         <v>2697.04844680083</v>
@@ -7202,7 +7202,7 @@
         <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U38" t="n">
         <v>2524.562504920008</v>
@@ -7245,31 +7245,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J39" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024861</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L39" t="n">
-        <v>738.356086993137</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M39" t="n">
-        <v>970.9289320604023</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.448422643608</v>
+        <v>2005.580364494033</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.114317104853</v>
+        <v>2214.931471020084</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.6019312162165</v>
+        <v>106.433448658814</v>
       </c>
       <c r="C40" t="n">
-        <v>477.7782820480174</v>
+        <v>84.60979949061493</v>
       </c>
       <c r="D40" t="n">
-        <v>474.7741763953894</v>
+        <v>81.605693837987</v>
       </c>
       <c r="E40" t="n">
-        <v>326.8610828129963</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="F40" t="n">
-        <v>179.9711353150859</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="G40" t="n">
-        <v>64.69654750984894</v>
+        <v>59.49000301458092</v>
       </c>
       <c r="H40" t="n">
-        <v>59.14751343128458</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I40" t="n">
-        <v>59.14751343128458</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K40" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O40" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P40" t="n">
         <v>1197.433943491319</v>
@@ -7363,19 +7363,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323123</v>
+        <v>839.6281004943253</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861332</v>
+        <v>584.9436122884384</v>
       </c>
       <c r="W40" t="n">
-        <v>688.6949248088804</v>
+        <v>295.5264422514778</v>
       </c>
       <c r="X40" t="n">
-        <v>607.8179076705708</v>
+        <v>214.6494251131683</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.1378622867485</v>
+        <v>140.9693797293459</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761023</v>
+        <v>993.0855527761022</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375658</v>
+        <v>754.4098339375657</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076661</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J41" t="n">
         <v>108.4035068467937</v>
       </c>
       <c r="K41" t="n">
-        <v>561.6712099099582</v>
+        <v>561.6712099099584</v>
       </c>
       <c r="L41" t="n">
-        <v>791.2212209029835</v>
+        <v>762.7819013691044</v>
       </c>
       <c r="M41" t="n">
-        <v>1046.665052477122</v>
+        <v>1399.064511081384</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.856040683266</v>
+        <v>1663.255499287528</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.981017474577</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P41" t="n">
-        <v>2409.594617110752</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T41" t="n">
         <v>2631.109718285715</v>
@@ -7448,10 +7448,10 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
         <v>1665.576007108263</v>
@@ -7485,28 +7485,28 @@
         <v>92.48729593459851</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L42" t="n">
-        <v>351.7053773636794</v>
+        <v>738.3560869931372</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.224867946885</v>
+        <v>1405.875577576342</v>
       </c>
       <c r="N42" t="n">
-        <v>1686.74435853009</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O42" t="n">
-        <v>2286.019161140104</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2434.70881460356</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4334486588142</v>
+        <v>106.433448658814</v>
       </c>
       <c r="C43" t="n">
-        <v>84.60979949061505</v>
+        <v>84.60979949061493</v>
       </c>
       <c r="D43" t="n">
-        <v>81.60569383798709</v>
+        <v>81.605693837987</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530169</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458092</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K43" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O43" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P43" t="n">
         <v>1197.433943491319</v>
@@ -7597,22 +7597,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>1080.60138472706</v>
+        <v>981.657969689073</v>
       </c>
       <c r="U43" t="n">
-        <v>839.6281004943254</v>
+        <v>692.5155667346176</v>
       </c>
       <c r="V43" t="n">
-        <v>584.9436122884385</v>
+        <v>437.8310785287306</v>
       </c>
       <c r="W43" t="n">
-        <v>295.526442251478</v>
+        <v>295.5264422514778</v>
       </c>
       <c r="X43" t="n">
-        <v>214.6494251131684</v>
+        <v>214.6494251131683</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9693797293461</v>
+        <v>140.9693797293459</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375648</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076651</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
@@ -7649,25 +7649,25 @@
         <v>108.4035068467937</v>
       </c>
       <c r="K44" t="n">
-        <v>240.7672514645051</v>
+        <v>561.6712099099584</v>
       </c>
       <c r="L44" t="n">
-        <v>855.362545328597</v>
+        <v>1176.26650377405</v>
       </c>
       <c r="M44" t="n">
-        <v>1522.882035911802</v>
+        <v>1717.645232171151</v>
       </c>
       <c r="N44" t="n">
-        <v>2190.401526495008</v>
+        <v>1981.836220377296</v>
       </c>
       <c r="O44" t="n">
-        <v>2426.534323836201</v>
+        <v>2217.969017718489</v>
       </c>
       <c r="P44" t="n">
-        <v>2619.786457864058</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R44" t="n">
         <v>2697.048446800829</v>
@@ -7719,25 +7719,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459849</v>
       </c>
       <c r="I45" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K45" t="n">
-        <v>168.9936422730285</v>
+        <v>293.8237672600334</v>
       </c>
       <c r="L45" t="n">
-        <v>575.1595376202803</v>
+        <v>843.667444201109</v>
       </c>
       <c r="M45" t="n">
-        <v>1242.679028203486</v>
+        <v>1218.220234854086</v>
       </c>
       <c r="N45" t="n">
-        <v>1495.81602935333</v>
+        <v>1885.739725437292</v>
       </c>
       <c r="O45" t="n">
         <v>2095.090831963344</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.6019312162165</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C46" t="n">
-        <v>330.6657482883096</v>
+        <v>84.60979949061505</v>
       </c>
       <c r="D46" t="n">
-        <v>327.6616426356816</v>
+        <v>81.60569383798709</v>
       </c>
       <c r="E46" t="n">
-        <v>179.7485490532885</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F46" t="n">
-        <v>179.7485490532885</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G46" t="n">
         <v>59.49000301458095</v>
@@ -7807,19 +7807,19 @@
         <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O46" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P46" t="n">
         <v>1197.433943491319</v>
@@ -7837,19 +7837,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323123</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861332</v>
+        <v>732.0561460481464</v>
       </c>
       <c r="W46" t="n">
-        <v>688.6949248088804</v>
+        <v>589.7515097708936</v>
       </c>
       <c r="X46" t="n">
-        <v>607.8179076705708</v>
+        <v>361.7619588728762</v>
       </c>
       <c r="Y46" t="n">
-        <v>534.1378622867485</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>205.6616725415548</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>316.758458114576</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>267.968115859272</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>335.3926109820225</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>327.9241016057883</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>136.3966111758642</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>158.4548597524203</v>
       </c>
       <c r="K14" t="n">
-        <v>205.6616725415548</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>380.4759295761907</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>345.1000650488705</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>207.1781821989125</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>372.1522779934577</v>
       </c>
       <c r="P15" t="n">
-        <v>136.3966111758642</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>266.5195585663594</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>325.5939698640772</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>316.758458114576</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.3149681418726</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393861</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>327.9241016057883</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>372.1522779934576</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>89.33136832897287</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>55.65312519936607</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>316.7584581145758</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.3149681418726</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>188.7741878393861</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>81.08714685850308</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>372.1522779934574</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>65.65567746118991</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>65.06724726728663</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>371.9499590028348</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>207.0664243462255</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0519655754336</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1625669318808</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>106.7767499497066</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>228.3846565366417</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>297.4004724464388</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>113.8662001453373</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>36.79361359671813</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>203.5435243691103</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>477.9960051995829</v>
       </c>
       <c r="O30" t="n">
-        <v>87.43973284659597</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>242.1398374872637</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>146.2773311082966</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>87.43973284659597</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>7.240332614676795</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>300.2278670677837</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5890193108973</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>439.3400459756969</v>
+        <v>197.4116180775731</v>
       </c>
       <c r="N36" t="n">
-        <v>418.5681711448092</v>
+        <v>418.5681711448088</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>125.6058704815939</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>275.0486958242865</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>416.2380394030983</v>
+        <v>416.238039403098</v>
       </c>
       <c r="N38" t="n">
-        <v>407.402527653597</v>
+        <v>407.4025276535968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>38.50399756608255</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>418.5681711448094</v>
+        <v>418.5681711448092</v>
       </c>
       <c r="O39" t="n">
-        <v>39.7119070052461</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>197.4116180775731</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>28.72658538775704</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>384.6856344829708</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>439.3400459756969</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448092</v>
+        <v>18.94003217435838</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.605870481594</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>416.2380394030981</v>
+        <v>288.8231281040026</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>26.48409644590916</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>225.7112729864655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756969</v>
+        <v>143.414086450214</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>418.568171144809</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.6077691895256</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>302.1893468425367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.26680952771778</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173339</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>172.3315822819401</v>
       </c>
       <c r="X14" t="n">
         <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8983226496881</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>27.76983607194239</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>179.8983226496916</v>
       </c>
       <c r="G20" t="n">
-        <v>179.8983226496873</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694888.969680862</v>
+        <v>694888.9696808617</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694888.969680862</v>
+        <v>694888.9696808617</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773080.4913642863</v>
+        <v>773080.4913642858</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773080.4913642864</v>
+        <v>773080.4913642858</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795687.3587394367</v>
+        <v>795687.3587394366</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803608.8775177826</v>
+        <v>803608.8775177825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803608.8775177825</v>
+        <v>803608.8775177826</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803608.8775177826</v>
+        <v>803608.8775177825</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
         <v>716866.7963774083</v>
       </c>
       <c r="E2" t="n">
-        <v>627690.1087752733</v>
+        <v>627690.1087752732</v>
       </c>
       <c r="F2" t="n">
-        <v>627690.1087752735</v>
+        <v>627690.1087752732</v>
       </c>
       <c r="G2" t="n">
-        <v>705881.630458697</v>
+        <v>705881.6304586972</v>
       </c>
       <c r="H2" t="n">
         <v>705881.6304586972</v>
       </c>
       <c r="I2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="J2" t="n">
         <v>718411.5486312482</v>
       </c>
       <c r="K2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="L2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="M2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="N2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="O2" t="n">
         <v>718411.5486312475</v>
       </c>
-      <c r="N2" t="n">
-        <v>718411.5486312483</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="P2" t="n">
-        <v>718411.5486312482</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150431</v>
+        <v>793631.672415043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168557</v>
+        <v>63544.96898168552</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776742</v>
+        <v>12327.03098776763</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323107</v>
+        <v>75688.1800532311</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168558</v>
+        <v>63544.96898168553</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.32893797</v>
+        <v>137355.3289379698</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>154325.0722680948</v>
       </c>
       <c r="G4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775317</v>
       </c>
       <c r="H4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775316</v>
       </c>
       <c r="I4" t="n">
-        <v>210892.2080352274</v>
+        <v>210892.2080352272</v>
       </c>
       <c r="J4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="K4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="L4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="M4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667406</v>
       </c>
       <c r="N4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667406</v>
       </c>
       <c r="O4" t="n">
         <v>208992.6487667407</v>
       </c>
       <c r="P4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667406</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591299</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591299</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256465</v>
+        <v>63921.62594256461</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256465</v>
+        <v>63921.62594256459</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220108</v>
+        <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
         <v>77650.54597770231</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241589.9463815884</v>
+        <v>241585.53280372</v>
       </c>
       <c r="C6" t="n">
-        <v>241589.946381588</v>
+        <v>241585.53280372</v>
       </c>
       <c r="D6" t="n">
-        <v>241589.9463815879</v>
+        <v>241585.5328037197</v>
       </c>
       <c r="E6" t="n">
-        <v>-377510.5593537777</v>
+        <v>-377769.7634676517</v>
       </c>
       <c r="F6" t="n">
-        <v>416121.1130612657</v>
+        <v>415861.9089473913</v>
       </c>
       <c r="G6" t="n">
-        <v>373279.7328569149</v>
+        <v>373243.9330907081</v>
       </c>
       <c r="H6" t="n">
-        <v>436824.7018386007</v>
+        <v>436788.9020723937</v>
       </c>
       <c r="I6" t="n">
-        <v>428452.2395260517</v>
+        <v>428452.2395260523</v>
       </c>
       <c r="J6" t="n">
-        <v>364218.0881592282</v>
+        <v>364218.0881592283</v>
       </c>
       <c r="K6" t="n">
-        <v>439906.2682124594</v>
+        <v>439906.2682124591</v>
       </c>
       <c r="L6" t="n">
         <v>376361.2992307735</v>
       </c>
       <c r="M6" t="n">
-        <v>303742.2629846646</v>
+        <v>303742.2629846653</v>
       </c>
       <c r="N6" t="n">
-        <v>441097.5919226354</v>
+        <v>441097.5919226351</v>
       </c>
       <c r="O6" t="n">
-        <v>441097.591922635</v>
+        <v>441097.5919226346</v>
       </c>
       <c r="P6" t="n">
-        <v>441097.5919226353</v>
+        <v>441097.5919226351</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,7 +26707,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
         <v>79.43121122710694</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973009</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999444</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="J4" t="n">
         <v>919.25328117088</v>
@@ -26820,13 +26820,13 @@
         <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002071</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="P4" t="n">
         <v>674.2621117002074</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875708</v>
+        <v>46.35598913875788</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709356</v>
+        <v>289.2792498709357</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905147</v>
+        <v>338.6268726905138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611873</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="12">
@@ -28175,19 +28175,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>18.08533776941172</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G12" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H12" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.84908941216895</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.4312112271067</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="15">
@@ -28406,25 +28406,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>67.11943691067985</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E15" t="n">
-        <v>67.11943691067724</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F15" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710753</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="17">
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>80.91264697150987</v>
       </c>
       <c r="F18" t="n">
-        <v>112.3370082749379</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542139</v>
+        <v>67.07731902944727</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28743,7 +28743,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,19 +28767,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>158.8624224542139</v>
       </c>
-      <c r="T19" t="n">
-        <v>104.7425892056562</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>128.2873276321877</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.83433604502383</v>
       </c>
     </row>
     <row r="22">
@@ -28959,13 +28959,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28980,7 +28980,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,19 +29004,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>82.0671799620099</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
-        <v>158.8624224542139</v>
+        <v>67.07731902944721</v>
       </c>
       <c r="W22" t="n">
         <v>158.8624224542139</v>
@@ -29025,7 +29025,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>46.08353671520268</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>46.08353671520283</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,19 +29193,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>68.62580553072746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>158.8624224542139</v>
@@ -29217,7 +29217,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542139</v>
+        <v>104.7425892056562</v>
       </c>
       <c r="U25" t="n">
         <v>158.8624224542139</v>
@@ -29256,7 +29256,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>158.8624224542139</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710713</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="29">
@@ -29931,7 +29931,7 @@
         <v>79.43121122710696</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710667</v>
       </c>
       <c r="L34" t="n">
         <v>79.43121122710696</v>
@@ -30144,7 +30144,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.6874275345031</v>
       </c>
       <c r="D37" t="n">
         <v>145.6414084221107</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39765044071316</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="W37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30387,13 +30387,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>52.62154618563964</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H40" t="n">
         <v>145.6414084221107</v>
@@ -30402,7 +30402,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30435,13 +30435,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450314</v>
       </c>
       <c r="V40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>145.6414084221107</v>
@@ -30639,7 +30639,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,16 +30669,16 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
+        <v>47.68742753450329</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="U43" t="n">
-        <v>47.68742753450371</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>145.6414084221107</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>47.6874275345038</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
         <v>145.6414084221107</v>
@@ -30876,7 +30876,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30912,13 +30912,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450351</v>
       </c>
       <c r="W46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>145.6414084221107</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
@@ -31765,7 +31765,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
         <v>488.370305524382</v>
@@ -31774,10 +31774,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
         <v>300.3481029418955</v>
@@ -31786,7 +31786,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
@@ -31835,25 +31835,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K12" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693366</v>
@@ -31862,16 +31862,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
         <v>11.09222034755017</v>
@@ -31917,7 +31917,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31935,22 +31935,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P13" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q13" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
@@ -32002,7 +32002,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
         <v>488.370305524382</v>
@@ -32011,10 +32011,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418955</v>
@@ -32023,7 +32023,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
@@ -32072,25 +32072,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K15" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
         <v>284.1659765693366</v>
@@ -32099,16 +32099,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
         <v>11.09222034755017</v>
@@ -32154,7 +32154,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32172,22 +32172,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q16" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
@@ -32236,37 +32236,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H18" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K18" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q18" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S18" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H19" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I19" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32400,7 +32400,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M19" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N19" t="n">
         <v>190.9154857978651</v>
@@ -32409,22 +32409,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
@@ -32473,37 +32473,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H21" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K21" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q21" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S21" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H22" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I22" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32637,7 +32637,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M22" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N22" t="n">
         <v>190.9154857978651</v>
@@ -32646,22 +32646,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
@@ -32710,37 +32710,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H24" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K24" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q24" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S24" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H25" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I25" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32874,7 +32874,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M25" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N25" t="n">
         <v>190.9154857978651</v>
@@ -32883,22 +32883,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
@@ -32947,37 +32947,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R26" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H27" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K27" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q27" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H28" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I28" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
@@ -33111,7 +33111,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N28" t="n">
         <v>190.9154857978651</v>
@@ -33120,22 +33120,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S28" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
@@ -33184,37 +33184,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H30" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K30" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q30" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S30" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I31" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33348,7 +33348,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M31" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N31" t="n">
         <v>190.9154857978651</v>
@@ -33357,22 +33357,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q31" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
@@ -33421,37 +33421,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H33" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K33" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q33" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S33" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H34" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I34" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33585,7 +33585,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M34" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N34" t="n">
         <v>190.9154857978651</v>
@@ -33594,22 +33594,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q34" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
@@ -33658,37 +33658,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H36" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K36" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q36" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S36" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H37" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I37" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33822,7 +33822,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M37" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N37" t="n">
         <v>190.9154857978651</v>
@@ -33831,22 +33831,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q37" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
@@ -33895,37 +33895,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H39" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J39" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K39" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q39" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S39" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H40" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I40" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34059,7 +34059,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M40" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N40" t="n">
         <v>190.9154857978651</v>
@@ -34068,22 +34068,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q40" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
@@ -34132,37 +34132,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H42" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K42" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q42" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S42" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H43" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I43" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34296,7 +34296,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M43" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N43" t="n">
         <v>190.9154857978651</v>
@@ -34305,22 +34305,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q43" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
@@ -34369,37 +34369,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H45" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K45" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q45" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S45" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H46" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I46" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34533,7 +34533,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M46" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N46" t="n">
         <v>190.9154857978651</v>
@@ -34542,22 +34542,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q46" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634052</v>
       </c>
       <c r="K11" t="n">
-        <v>339.3624246806572</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L11" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P11" t="n">
-        <v>490.5187875112878</v>
+        <v>436.6881951990772</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3976534758337</v>
+        <v>519.9499191543972</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O12" t="n">
         <v>211.4657641677289</v>
       </c>
       <c r="P12" t="n">
-        <v>286.5881803308706</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302608</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M13" t="n">
-        <v>314.5806868114501</v>
+        <v>314.5806868114498</v>
       </c>
       <c r="N13" t="n">
         <v>314.4788694042006</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>213.4675243087608</v>
       </c>
       <c r="K14" t="n">
-        <v>339.3624246806572</v>
+        <v>133.7007521391025</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N14" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123161</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609047</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9228186490254</v>
+        <v>309.6357638353595</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P15" t="n">
-        <v>286.5881803308706</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q15" t="n">
         <v>260.0529435288752</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679224</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K17" t="n">
-        <v>457.8461647102671</v>
+        <v>400.2203107054619</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971092</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P17" t="n">
-        <v>372.0350474816778</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117607</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P18" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288752</v>
+        <v>139.307024121999</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L19" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M19" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N19" t="n">
         <v>235.0476581770937</v>
@@ -36057,10 +36057,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P19" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.1092797284143</v>
+        <v>110.6657897557066</v>
       </c>
       <c r="K20" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
-        <v>372.0350474816778</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L21" t="n">
-        <v>373.3314960117607</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>336.7810874139014</v>
       </c>
       <c r="O21" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="P21" t="n">
         <v>468.6543377949436</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L22" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M22" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N22" t="n">
         <v>235.0476581770937</v>
@@ -36294,10 +36294,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P22" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284143</v>
+        <v>120.6683420175305</v>
       </c>
       <c r="K23" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L23" t="n">
-        <v>268.2093598522825</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971092</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P23" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490254</v>
+        <v>309.5240059826725</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758337</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245105</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444583</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.1382227249068</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L25" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M25" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N25" t="n">
         <v>235.0476581770937</v>
@@ -36531,10 +36531,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P25" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>373.6363339963173</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P26" t="n">
-        <v>397.1047358764469</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K27" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L27" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M27" t="n">
-        <v>234.9220657245105</v>
+        <v>700.6271294745105</v>
       </c>
       <c r="N27" t="n">
-        <v>735.0363148989517</v>
+        <v>735.0363148989518</v>
       </c>
       <c r="O27" t="n">
-        <v>211.4657641677289</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P27" t="n">
-        <v>447.5920416014452</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.0529435288752</v>
+        <v>163.8418559383634</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M28" t="n">
         <v>314.5806868114501</v>
       </c>
       <c r="N28" t="n">
-        <v>314.4788694042008</v>
+        <v>314.4788694042006</v>
       </c>
       <c r="O28" t="n">
         <v>280.3576908422816</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102671</v>
+        <v>170.4943657358207</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P29" t="n">
-        <v>372.2636037089155</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744601</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R29" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K30" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758337</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M30" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N30" t="n">
-        <v>255.6939405553981</v>
+        <v>733.6899457549812</v>
       </c>
       <c r="O30" t="n">
-        <v>298.9054970143249</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P30" t="n">
         <v>468.6543377949436</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P31" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940496</v>
+        <v>97.737922189405</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>133.7007521391024</v>
+        <v>375.8405896263663</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P32" t="n">
-        <v>314.9974104481018</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R32" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3976534758337</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N33" t="n">
-        <v>255.6939405553981</v>
+        <v>735.0363148989518</v>
       </c>
       <c r="O33" t="n">
-        <v>298.9054970143249</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>57.2159884077029</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679167</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K34" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667566</v>
       </c>
       <c r="L34" t="n">
         <v>292.5040294974798</v>
@@ -37236,16 +37236,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N34" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O34" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P34" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940501</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K35" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L35" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971092</v>
+        <v>558.2519393648931</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O35" t="n">
-        <v>454.1069964232134</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P35" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R35" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L36" t="n">
-        <v>184.5573081723746</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M36" t="n">
-        <v>674.2621117002074</v>
+        <v>432.3336838020837</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002071</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444583</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P36" t="n">
-        <v>275.7974396366002</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.97565579302605</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L37" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M37" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N37" t="n">
         <v>235.0476581770937</v>
@@ -37479,10 +37479,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P37" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K38" t="n">
-        <v>408.7494479633889</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L38" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M38" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N38" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5179771123161</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P38" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744601</v>
+        <v>116.5464106335287</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>184.5573081723746</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O39" t="n">
-        <v>251.177671172975</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949436</v>
+        <v>347.6031872325795</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L40" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M40" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N40" t="n">
         <v>235.0476581770937</v>
@@ -37716,10 +37716,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P40" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L41" t="n">
-        <v>231.8686979727529</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M41" t="n">
-        <v>258.0240722971092</v>
+        <v>642.7097067800803</v>
       </c>
       <c r="N41" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O41" t="n">
-        <v>619.3181583750614</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P41" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002074</v>
+        <v>274.6339727297567</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444583</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.5815262746201</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L43" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M43" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N43" t="n">
         <v>235.0476581770937</v>
@@ -37953,10 +37953,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P43" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K44" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L44" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2621117002074</v>
+        <v>546.8472004011121</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P44" t="n">
-        <v>195.2041757857143</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K45" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L45" t="n">
-        <v>410.2685811588402</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M45" t="n">
+        <v>378.3361521747246</v>
+      </c>
+      <c r="N45" t="n">
         <v>674.2621117002074</v>
       </c>
-      <c r="N45" t="n">
-        <v>255.6939405553981</v>
-      </c>
       <c r="O45" t="n">
-        <v>605.3280834444583</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P45" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302605</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L46" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M46" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N46" t="n">
         <v>235.0476581770937</v>
@@ -38190,10 +38190,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P46" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
